--- a/LC/LC 20 Détermination de constantes d’équilibre (CPGE)/LC 20 Expériences_incertitudes.xlsx
+++ b/LC/LC 20 Détermination de constantes d’équilibre (CPGE)/LC 20 Expériences_incertitudes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lolo\Desktop\GitHub_Oraux_agreg\LC\LC 20 Détermination de constantes d’équilibre (CPGE)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA3703-F04F-4F48-B1F0-13603F5F0174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36061419-FE9F-4472-8337-D1F28F4FBF20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="360" windowWidth="14640" windowHeight="10065" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp 1 = Pile Daniell " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="52">
   <si>
     <t xml:space="preserve">Expérience 1 : Force électromotrice de la pile Daniell  </t>
   </si>
@@ -77,30 +77,18 @@
     <t>incertitude</t>
   </si>
   <si>
-    <t>pipette jaugée (mL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">pipette jaugée (mL) </t>
   </si>
   <si>
-    <t>d'eau</t>
-  </si>
-  <si>
     <t>fiole de 100mL (mL)</t>
   </si>
   <si>
-    <t xml:space="preserve"> de solution à 0,1 mol/L</t>
-  </si>
-  <si>
     <t>titrage</t>
   </si>
   <si>
     <t xml:space="preserve">Burette graduée 25mL </t>
   </si>
   <si>
-    <t>volume à l'équivalence</t>
-  </si>
-  <si>
     <t>Solution 25°C courbe PH</t>
   </si>
   <si>
@@ -113,34 +101,6 @@
     <t>Expérience 2 : détermination du Ks  à 25°C de l'acide benzoïque</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de solution saturée</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks = </t>
-  </si>
-  <si>
     <t>préparation solution titrante à 0,1 Mol/L</t>
   </si>
   <si>
@@ -195,14 +155,47 @@
     <t>50°C =</t>
   </si>
   <si>
-    <t>ln(incertitude)</t>
+    <t>grandeur mesurée</t>
+  </si>
+  <si>
+    <t>BBT</t>
+  </si>
+  <si>
+    <t>Ks(color)</t>
+  </si>
+  <si>
+    <t>Ks (pH)</t>
+  </si>
+  <si>
+    <t>volume à prélever de la solution à 0,1mol/L</t>
+  </si>
+  <si>
+    <t>fiole de 100mL (L)</t>
+  </si>
+  <si>
+    <t>volume d'eau a ajouter (L)</t>
+  </si>
+  <si>
+    <t>masse soude (g)</t>
+  </si>
+  <si>
+    <t>pipette jaugée (L)</t>
+  </si>
+  <si>
+    <t>volume V0 solution saturée (L)</t>
+  </si>
+  <si>
+    <t>Volume à l'équivalence (L)</t>
+  </si>
+  <si>
+    <t>Volume à l'équivalence(L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,15 +232,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,8 +294,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -498,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -855,140 +836,301 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,53 +1424,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1345,724 +1487,883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA79515C-F64F-4FD0-AA55-62FFDACA2498}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="I2" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="I3" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="74"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="83"/>
+      <c r="E4" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="72"/>
+      <c r="M5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="I7" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="76"/>
+      <c r="K7" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="L7" s="68"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12">
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="34" t="s">
+      <c r="N8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="G5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="42" t="s">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="G7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12">
-        <v>100</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1E-4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="13">
+      <c r="D11" s="86"/>
+      <c r="E11" s="14">
         <v>0.1</v>
       </c>
-      <c r="D11" s="52">
-        <f>C11*SQRT((D9/C9)^2+(D10/C10)^2)</f>
-        <v>1.25000000004E-2</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="55" t="e">
-        <f>(C11*I8)/C4</f>
+      <c r="F11" s="15">
+        <f>E11*SQRT((F9/E9)^2+(F10/E10)^2)</f>
+        <v>1.2500399993600206E-2</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="51" t="e">
+        <f>(E11*M8)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="25" t="e">
-        <f>H11*SQRT( (D11/C11)^2 + (J8/I8)^2+(D4/C4)^2 )</f>
+      <c r="L11" s="52" t="e">
+        <f>K11*SQRT( (F11/E11)^2 + (N8/M8)^2+(F4/E4)^2 )</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="54" t="e">
+        <f>(E11*M5)/E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="55" t="e">
+        <f>K11*SQRT( (F11/E11)^2 + (N5/M5)^2+(F4/E4)^2 )</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA3FBC-34D6-4FFD-8ADA-8598171A6BBF}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="I2" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="81"/>
+      <c r="C3" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="83"/>
+      <c r="C4" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="83"/>
+      <c r="E4" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="76"/>
+      <c r="K4" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="I5" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="69"/>
+      <c r="M5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="102"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="76"/>
+      <c r="K7" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="68"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="83"/>
+      <c r="C9" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="83"/>
+      <c r="E9" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="102"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="76"/>
+      <c r="K10" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="68"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="25">
+        <f>E11*SQRT((F9/E9)^2+(F10/E10)^2)</f>
+        <v>1.2500399993600206E-2</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="I13" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="76"/>
+      <c r="K13" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="69"/>
+      <c r="M14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="69"/>
+      <c r="E16" s="59">
+        <v>0.08</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="25">
+        <f>E17*SQRT((F15/E15)^2+(F16/E16)^2)</f>
+        <v>3.9051248379533272E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="H2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
+      <c r="J18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="12">
-        <v>20</v>
-      </c>
-      <c r="D4" s="27">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="34" t="s">
+      <c r="L18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="G5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="42" t="s">
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="12">
-        <v>100</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1E-4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="52">
-        <f>C11*SQRT((D9/C9)^2+(D10/C10)^2)</f>
-        <v>1.25000000004E-2</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12">
-        <v>20</v>
-      </c>
-      <c r="D15" s="27">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30">
-        <v>80</v>
-      </c>
-      <c r="D16" s="31">
-        <v>1E-4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="D17" s="52">
-        <f>C17*SQRT((D15/C15)^2+(D16/C16)^2)</f>
-        <v>3.9051248379533272E-8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="65">
+      <c r="H19" s="33">
         <v>273</v>
       </c>
-      <c r="I19" s="66" t="e">
-        <f>(C17*I5)/C4</f>
+      <c r="I19" s="34" t="e">
+        <f>(E17*M5)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J19" s="67" t="e">
-        <f>I19*SQRT( (D17/C17)^2 + (J5/I5)^2+(D4/C4)^2 )</f>
+      <c r="J19" s="35" t="e">
+        <f>I19*SQRT( (F17/E17)^2 + (N5/M5)^2+(F4/E4)^2 )</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L19" s="58" t="e">
+      <c r="L19" s="27" t="e">
         <f>LN(I19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="8">
         <f>1/H19</f>
         <v>3.663003663003663E-3</v>
       </c>
-      <c r="N19" s="23" t="e">
-        <f>LN(J19)</f>
+      <c r="N19" s="11" t="e">
+        <f>J19/(I19*L19)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="65">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="33">
         <v>283</v>
       </c>
-      <c r="I20" s="66" t="e">
-        <f>(C17*I8)/C4</f>
+      <c r="I20" s="34" t="e">
+        <f>(E17*M8)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J20" s="67" t="e">
-        <f>I20*SQRT( (D17/C17)^2 + (J8/I8)^2+(D4/C4)^2 )</f>
+      <c r="J20" s="35" t="e">
+        <f>I20*SQRT( (F17/E17)^2 + (N8/M8)^2+(F4/E4)^2 )</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L20" s="58" t="e">
+      <c r="L20" s="27" t="e">
         <f t="shared" ref="L20:L22" si="0">LN(I20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="8">
         <f t="shared" ref="M20:M22" si="1">1/H20</f>
         <v>3.5335689045936395E-3</v>
       </c>
-      <c r="N20" s="23" t="e">
-        <f t="shared" ref="N20:N22" si="2">LN(J20)</f>
+      <c r="N20" s="11" t="e">
+        <f>J20/(I20*L20)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="65">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="33">
         <v>297</v>
       </c>
-      <c r="I21" s="68" t="e">
-        <f>(C11*I11)/C4</f>
+      <c r="I21" s="36" t="e">
+        <f>(E11*M11)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="67" t="e">
-        <f>I21*SQRT( (D11/C11)^2 + (I11/J11)^2+(D4/C4)^2 )</f>
+      <c r="J21" s="35" t="e">
+        <f>I21*SQRT( (F11/E11)^2 + (M11/N11)^2+(F4/E4)^2 )</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L21" s="58" t="e">
+      <c r="L21" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="8">
         <f t="shared" si="1"/>
         <v>3.3670033670033669E-3</v>
       </c>
-      <c r="N21" s="23" t="e">
-        <f t="shared" si="2"/>
+      <c r="N21" s="11" t="e">
+        <f>J21/(I21*L21)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="69">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="37">
         <v>323</v>
       </c>
-      <c r="I22" s="70" t="e">
-        <f>(C11*I14)/C4</f>
+      <c r="I22" s="38" t="e">
+        <f>(E11*M14)/E4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J22" s="71" t="e">
-        <f>I22*SQRT( (D11/C11)^2 + (J14/I14)^2+(D4/C4)^2 )</f>
+      <c r="J22" s="39" t="e">
+        <f>I22*SQRT( (F11/E11)^2 + (N14/M14)^2+(F4/E4)^2 )</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="59" t="e">
+      <c r="L22" s="28" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M22" s="12">
         <f t="shared" si="1"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="N22" s="60" t="e">
-        <f t="shared" si="2"/>
+      <c r="N22" s="11" t="e">
+        <f>J22/(I22*L22)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K14:L14"/>
+  <mergeCells count="58">
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
